--- a/trunk/采购价格表.xlsx
+++ b/trunk/采购价格表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="208">
   <si>
     <t>空间</t>
   </si>
@@ -1505,13 +1505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK124"/>
+  <dimension ref="A1:AMK125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3967,7 +3967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="22.5">
+    <row r="100" spans="1:11" ht="23.25" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>107</v>
       </c>
@@ -3994,12 +3994,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" ht="14.25" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4011,12 +4011,12 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" ht="14.25" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4032,7 +4032,9 @@
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4164,7 +4166,9 @@
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4173,10 +4177,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="3">
-        <f>SUM(J3:J87)</f>
-        <v>76738</v>
-      </c>
+      <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11">
@@ -4189,7 +4190,10 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3">
+        <f>SUM(J3:J87)</f>
+        <v>76738</v>
+      </c>
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11">
@@ -4334,6 +4338,19 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K31"/>

--- a/trunk/采购价格表.xlsx
+++ b/trunk/采购价格表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="212">
   <si>
     <t>空间</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>明管管道封管</t>
-  </si>
-  <si>
-    <t>水电施工项目</t>
   </si>
   <si>
     <t>PPR水管</t>
@@ -1001,12 +998,33 @@
     <t>KWS290-008N</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>水电施工项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角阀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝生元纯铜冷热水角阀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐家网
+http://mall.jia.com/item/33401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1068,6 +1086,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1125,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,6 +1168,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1505,13 +1534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK125"/>
+  <dimension ref="A1:AMK127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1589,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1982,10 +2011,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
@@ -2020,11 +2049,11 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -2039,7 +2068,7 @@
         <v>4999</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -2051,16 +2080,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -2075,7 +2104,7 @@
         <v>5329</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L16" s="5"/>
     </row>
@@ -2334,7 +2363,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
@@ -2408,7 +2437,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>15</v>
@@ -2490,7 +2519,7 @@
     </row>
     <row r="31" spans="1:12" ht="23.25" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>58</v>
@@ -2509,22 +2538,22 @@
     </row>
     <row r="32" spans="1:12" ht="37.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -2539,27 +2568,27 @@
         <v>999</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34.5" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -2574,24 +2603,24 @@
         <v>899</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="63.75" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2602,22 +2631,22 @@
     </row>
     <row r="35" spans="1:11" ht="45.75" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -2632,27 +2661,27 @@
         <v>789</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45.75" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -2667,7 +2696,7 @@
         <v>899</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" thickBot="1">
@@ -3231,17 +3260,17 @@
         <v>85</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -3256,7 +3285,7 @@
         <v>89</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="23.25" thickBot="1">
@@ -3264,17 +3293,17 @@
         <v>85</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -3289,7 +3318,7 @@
         <v>59</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" thickBot="1">
@@ -3297,7 +3326,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3361,19 +3390,19 @@
         <v>85</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -3388,7 +3417,7 @@
         <v>699</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" thickBot="1">
@@ -3396,7 +3425,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3413,19 +3442,19 @@
         <v>85</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -3440,7 +3469,7 @@
         <v>810</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="34.5" thickBot="1">
@@ -3448,17 +3477,17 @@
         <v>85</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -3473,7 +3502,7 @@
         <v>233</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="45.75" thickBot="1">
@@ -3481,17 +3510,17 @@
         <v>85</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -3506,7 +3535,7 @@
         <v>400</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" thickBot="1">
@@ -3537,10 +3566,10 @@
     </row>
     <row r="82" spans="1:11" ht="23.25" thickBot="1">
       <c r="A82" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3552,30 +3581,40 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="23.25" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="F83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="I83" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3586,128 +3625,112 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="33.75">
+    <row r="85" spans="1:11" ht="14.25" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3">
-        <v>127</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="22.5">
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3">
-        <v>208</v>
-      </c>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="22.5">
+    <row r="87" spans="1:11" ht="33.75">
       <c r="A87" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
-        <v>111</v>
+      <c r="F87" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="K87" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="22.5">
       <c r="A88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E88" s="3"/>
-      <c r="F88" s="3" t="s">
-        <v>116</v>
+      <c r="F88" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
-        <v>117</v>
+      <c r="H88" s="3">
+        <v>208</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="22.5">
       <c r="A89" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>120</v>
+      <c r="H89" s="3">
+        <v>317</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -3715,24 +3738,24 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3740,130 +3763,130 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3">
-        <v>294</v>
-      </c>
-      <c r="I91" s="3">
-        <v>294</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="22.5">
+    <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G92" s="3"/>
-      <c r="H92" s="3">
-        <v>128</v>
+      <c r="H92" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="22.5">
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>113</v>
+      <c r="D93" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
       <c r="H93" s="3">
-        <v>204</v>
-      </c>
-      <c r="I93" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="I93" s="3">
+        <v>294</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" ht="22.5">
       <c r="A94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3">
         <v>128</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="K94" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="22.5">
       <c r="A95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>130</v>
+      <c r="H95" s="3">
+        <v>204</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -3871,24 +3894,24 @@
     </row>
     <row r="96" spans="1:11" ht="22.5">
       <c r="A96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>132</v>
+      <c r="C96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -3896,144 +3919,160 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>134</v>
+      <c r="C97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" ht="22.5">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="168.75">
+    <row r="99" spans="1:11">
       <c r="A99" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="3">
-        <v>2302</v>
+      <c r="H99" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="23.25" thickBot="1">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G100" s="3"/>
-      <c r="H100" s="3">
-        <v>63</v>
+      <c r="H100" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="14.25" thickBot="1">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" ht="168.75">
       <c r="A101" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3">
+        <v>2302</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="14.25" thickBot="1">
+      <c r="K101" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="23.25" thickBot="1">
       <c r="A102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3">
+        <v>63</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="K102" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.25" thickBot="1">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4045,11 +4084,13 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" ht="14.25" thickBot="1">
       <c r="A104" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4062,9 +4103,11 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4077,7 +4120,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4092,7 +4135,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4107,7 +4150,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4122,7 +4165,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4137,7 +4180,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4152,7 +4195,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4167,7 +4210,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4181,7 +4224,9 @@
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="3"/>
+      <c r="A113" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4190,14 +4235,13 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3">
-        <f>SUM(J3:J87)</f>
-        <v>76738</v>
-      </c>
+      <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="3"/>
+      <c r="A114" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4219,7 +4263,10 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3">
+        <f>SUM(J3:J89)</f>
+        <v>76766.8</v>
+      </c>
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="1:11">
@@ -4352,6 +4399,32 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K31"/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4359,10 +4432,10 @@
     <hyperlink ref="K5" r:id="rId1" display="http://www.yihaodian.com/product/2698379_3829?from=search"/>
     <hyperlink ref="K9" r:id="rId2" display="http://www.yihaodian.com/product/2482618_5253?from=search"/>
     <hyperlink ref="K14" r:id="rId3" display="http://www.360buy.com/product/491140.html"/>
-    <hyperlink ref="K85" r:id="rId4" display="http://detail.tmall.com/item.htm?id=17558712042&amp;"/>
-    <hyperlink ref="K92" r:id="rId5" display="http://mall.jia.com/item/14916"/>
-    <hyperlink ref="K99" r:id="rId6" display="http://mall.jia.com/item/8112"/>
-    <hyperlink ref="K100" r:id="rId7" display="http://www.360buy.com/product/1005852040.html"/>
+    <hyperlink ref="K87" r:id="rId4" display="http://detail.tmall.com/item.htm?id=17558712042&amp;"/>
+    <hyperlink ref="K94" r:id="rId5" display="http://mall.jia.com/item/14916"/>
+    <hyperlink ref="K101" r:id="rId6" display="http://mall.jia.com/item/8112"/>
+    <hyperlink ref="K102" r:id="rId7" display="http://www.360buy.com/product/1005852040.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId8"/>

--- a/trunk/采购价格表.xlsx
+++ b/trunk/采购价格表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$K$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="221">
   <si>
     <t>空间</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>高564*宽350*深130</t>
-  </si>
-  <si>
-    <t>11L 恒温GQ-1150FE</t>
   </si>
   <si>
     <t>高564*宽350*深131</t>
@@ -1017,6 +1014,46 @@
   <si>
     <t>齐家网
 http://mall.jia.com/item/33401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">对开门 649wadv </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>908×818×1790毫米</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁电器川沙店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXW-200-8212N+9B28N(送刀具８件套)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000-950(券)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L 恒温GQ-1150FE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11L 恒温GQ-11A1FE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1534,13 +1571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK127"/>
+  <dimension ref="A1:AMK129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1618,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1786,7 +1823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5">
+    <row r="8" spans="1:12" ht="23.25" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1797,10 +1834,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
@@ -1823,7 +1860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33.75">
+    <row r="9" spans="1:12" ht="14.25" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1831,48 +1868,48 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>1199</v>
+        <v>2000</v>
       </c>
       <c r="I9" s="3">
-        <v>1199</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1199</v>
+        <f>H9*G9</f>
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
+        <f>I9</f>
+        <v>2000</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="22.5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="34.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -1881,34 +1918,34 @@
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>3639</v>
+        <v>1199</v>
       </c>
       <c r="I10" s="3">
-        <f>H10*G10</f>
-        <v>3639</v>
-      </c>
-      <c r="J10" s="3">
-        <f>I10</f>
-        <v>3639</v>
+        <v>1199</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1199</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1916,32 +1953,32 @@
         <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>4288</v>
+        <v>3639</v>
       </c>
       <c r="I11" s="3">
         <f>H11*G11</f>
-        <v>4288</v>
+        <v>3639</v>
       </c>
       <c r="J11" s="3">
         <f>I11</f>
-        <v>4288</v>
+        <v>3639</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="22.5">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -1951,15 +1988,15 @@
         <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>3999</v>
+        <v>4288</v>
       </c>
       <c r="I12" s="3">
         <f>H12*G12</f>
-        <v>3999</v>
+        <v>4288</v>
       </c>
       <c r="J12" s="3">
         <f>I12</f>
-        <v>3999</v>
+        <v>4288</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>16</v>
@@ -1970,13 +2007,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -1986,205 +2023,220 @@
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>5999</v>
+        <v>3999</v>
       </c>
       <c r="I13" s="3">
         <f>H13*G13</f>
-        <v>5999</v>
+        <v>3999</v>
       </c>
       <c r="J13" s="3">
         <f>I13</f>
-        <v>5999</v>
+        <v>3999</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="22.5">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>3588</v>
+        <v>5999</v>
       </c>
       <c r="I14" s="3">
-        <v>3588</v>
+        <f>H14*G14</f>
+        <v>5999</v>
       </c>
       <c r="J14" s="3">
-        <v>3588</v>
+        <f>I14</f>
+        <v>5999</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34.5" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>4999</v>
+        <v>3588</v>
       </c>
       <c r="I15" s="3">
-        <v>4999</v>
+        <v>3588</v>
       </c>
       <c r="J15" s="3">
-        <v>4999</v>
+        <v>3588</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.25" thickBot="1">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>5329</v>
+        <v>4999</v>
       </c>
       <c r="I16" s="3">
-        <v>5329</v>
+        <v>4999</v>
       </c>
       <c r="J16" s="3">
-        <v>5329</v>
+        <v>4999</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" thickBot="1">
+    <row r="17" spans="1:12" ht="34.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" thickBot="1">
+    <row r="18" spans="1:12" ht="23.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5329</v>
+      </c>
       <c r="I18" s="3">
-        <f t="shared" ref="I18:I27" si="0">H18*G18</f>
-        <v>0</v>
+        <v>5329</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:J27" si="1">I18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5329</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2192,104 +2244,80 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
+        <f t="shared" ref="I20:I29" si="0">H20*G20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20:J29" si="1">I20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1899</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>1899</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>1899</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="22.5">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2259</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>2259</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>2259</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="33.75">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>15</v>
@@ -2312,21 +2340,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="33.75">
+    <row r="24" spans="1:12" ht="22.5">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
@@ -2335,15 +2363,15 @@
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>2699</v>
+        <v>2259</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>2699</v>
+        <v>2259</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>2699</v>
+        <v>2259</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>16</v>
@@ -2354,16 +2382,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
@@ -2372,15 +2400,15 @@
         <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>2399</v>
+        <v>1899</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>2399</v>
+        <v>1899</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>2399</v>
+        <v>1899</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>16</v>
@@ -2391,16 +2419,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>15</v>
@@ -2409,15 +2437,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>1588</v>
+        <v>2699</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
-        <v>1588</v>
+        <v>2699</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
-        <v>1588</v>
+        <v>2699</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>16</v>
@@ -2428,16 +2456,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>15</v>
@@ -2446,67 +2474,103 @@
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>2538</v>
+        <v>2399</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>2538</v>
+        <v>2399</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>2538</v>
+        <v>2399</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="33.75">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" ht="22.5">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1588</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>1588</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>1588</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="33.75">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="22.5">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2538</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>2538</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>2538</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2517,15 +2581,15 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="23.25" thickBot="1">
+    <row r="31" spans="1:12" ht="22.5">
       <c r="A31" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2536,207 +2600,241 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="37.5" thickBot="1">
+    <row r="32" spans="1:12" ht="22.5">
       <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="37.5" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>999</v>
+      </c>
+      <c r="I34" s="3">
+        <v>999</v>
+      </c>
+      <c r="J34" s="3">
+        <v>999</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>999</v>
-      </c>
-      <c r="I32" s="3">
-        <v>999</v>
-      </c>
-      <c r="J32" s="3">
-        <v>999</v>
-      </c>
-      <c r="K32" s="3" t="s">
+    </row>
+    <row r="35" spans="1:11" ht="34.5" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>899</v>
-      </c>
-      <c r="I33" s="3">
-        <v>899</v>
-      </c>
-      <c r="J33" s="3">
-        <v>899</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="63.75" thickBot="1">
-      <c r="A34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A35" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
       <c r="H35" s="3">
+        <v>899</v>
+      </c>
+      <c r="I35" s="3">
+        <v>899</v>
+      </c>
+      <c r="J35" s="3">
+        <v>899</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="63.75" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
         <v>789</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I37" s="3">
         <v>789</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J37" s="3">
         <v>789</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K37" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>899</v>
+      </c>
+      <c r="I38" s="3">
+        <v>899</v>
+      </c>
+      <c r="J38" s="3">
+        <v>899</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="3">
+    </row>
+    <row r="39" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="3">
-        <v>899</v>
-      </c>
-      <c r="I36" s="3">
-        <v>899</v>
-      </c>
-      <c r="J36" s="3">
-        <v>899</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="H39" s="3">
+        <v>6599</v>
+      </c>
+      <c r="I39" s="3">
+        <v>6599</v>
+      </c>
+      <c r="J39" s="3">
+        <v>6599</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" thickBot="1">
       <c r="A40" s="3"/>
@@ -2752,15 +2850,9 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2770,16 +2862,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="42" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2789,15 +2875,15 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="14.25" thickBot="1">
       <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2810,12 +2896,14 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2825,15 +2913,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="45">
+    <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2846,14 +2934,12 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2863,15 +2949,15 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2884,10 +2970,14 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2899,17 +2989,15 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2920,17 +3008,11 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2941,16 +3023,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2962,16 +3044,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2983,11 +3065,17 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2998,11 +3086,17 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3011,16 +3105,12 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="33.75">
+    <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3032,11 +3122,9 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3047,14 +3135,16 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="33.75">
       <c r="A57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3066,10 +3156,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3083,10 +3173,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3098,12 +3188,12 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="22.5">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3117,10 +3207,10 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3134,17 +3224,13 @@
     </row>
     <row r="62" spans="1:11" ht="22.5">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3155,10 +3241,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3170,15 +3256,19 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="22.5">
       <c r="A64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3189,10 +3279,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3206,10 +3296,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3223,10 +3313,10 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3240,10 +3330,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3255,108 +3345,112 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="23.25" thickBot="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>89</v>
+      </c>
+      <c r="I71" s="3">
+        <v>89</v>
+      </c>
+      <c r="J71" s="3">
+        <v>89</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="3">
+    </row>
+    <row r="72" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="3">
         <v>1</v>
       </c>
-      <c r="H69" s="3">
-        <v>89</v>
-      </c>
-      <c r="I69" s="3">
-        <v>89</v>
-      </c>
-      <c r="J69" s="3">
-        <v>89</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="H72" s="3">
+        <v>59</v>
+      </c>
+      <c r="I72" s="3">
+        <v>59</v>
+      </c>
+      <c r="J72" s="3">
+        <v>59</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>59</v>
-      </c>
-      <c r="I70" s="3">
-        <v>59</v>
-      </c>
-      <c r="J70" s="3">
-        <v>59</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A71" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="23.25" thickBot="1">
+    </row>
+    <row r="73" spans="1:11" ht="14.25" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3368,13 +3462,9 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A74" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>104</v>
-      </c>
+    <row r="74" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3385,47 +3475,29 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="102" thickBot="1">
+    <row r="75" spans="1:11" ht="23.25" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>699</v>
-      </c>
-      <c r="I75" s="3">
-        <v>699</v>
-      </c>
-      <c r="J75" s="3">
-        <v>699</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.25" thickBot="1">
+        <v>102</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" ht="23.25" thickBot="1">
       <c r="A76" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3437,140 +3509,162 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="57" thickBot="1">
+    <row r="77" spans="1:11" ht="102" thickBot="1">
       <c r="A77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="3">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="I77" s="3">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="J77" s="3">
-        <v>810</v>
+        <v>699</v>
       </c>
       <c r="K77" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" ht="57" thickBot="1">
+      <c r="A79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>233</v>
-      </c>
-      <c r="I78" s="3">
-        <v>233</v>
-      </c>
-      <c r="J78" s="3">
-        <v>233</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F79" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79" s="3">
+        <v>810</v>
+      </c>
+      <c r="I79" s="3">
+        <v>810</v>
+      </c>
+      <c r="J79" s="3">
+        <v>810</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="34.5" thickBot="1">
+      <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>233</v>
+      </c>
+      <c r="I80" s="3">
+        <v>233</v>
+      </c>
+      <c r="J80" s="3">
+        <v>233</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A82" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="K81" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3581,40 +3675,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="23.25" thickBot="1">
-      <c r="A83" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>209</v>
-      </c>
+    <row r="83" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="J83" s="3">
-        <v>28.8</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="7"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="23.25" thickBot="1">
+      <c r="A84" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3625,30 +3705,40 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="14.25" thickBot="1">
+    <row r="85" spans="1:11" ht="23.25" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="F85" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="I85" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="J85" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3659,128 +3749,112 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="33.75">
+    <row r="87" spans="1:11" ht="14.25" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="3">
-        <v>127</v>
-      </c>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="22.5">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="3">
-        <v>208</v>
-      </c>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="22.5">
+    <row r="89" spans="1:11" ht="33.75">
       <c r="A89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
-        <v>110</v>
+      <c r="F89" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="K89" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="22.5">
       <c r="A90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>115</v>
+      <c r="F90" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>116</v>
+      <c r="H90" s="3">
+        <v>208</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="22.5">
       <c r="A91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>119</v>
+      <c r="H91" s="3">
+        <v>317</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -3788,24 +3862,24 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -3813,130 +3887,130 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="3">
-        <v>294</v>
-      </c>
-      <c r="I93" s="3">
-        <v>294</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="22.5">
+    <row r="94" spans="1:11">
       <c r="A94" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G94" s="3"/>
-      <c r="H94" s="3">
-        <v>128</v>
+      <c r="H94" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="22.5">
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>112</v>
+      <c r="D95" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
       <c r="H95" s="3">
-        <v>204</v>
-      </c>
-      <c r="I95" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="I95" s="3">
+        <v>294</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:11" ht="22.5">
       <c r="A96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>127</v>
+      <c r="H96" s="3">
+        <v>128</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="K96" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="22.5">
       <c r="A97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
-        <v>129</v>
+      <c r="H97" s="3">
+        <v>204</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -3944,24 +4018,24 @@
     </row>
     <row r="98" spans="1:11" ht="22.5">
       <c r="A98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>131</v>
+      <c r="C98" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -3969,144 +4043,160 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>133</v>
+      <c r="C99" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" ht="22.5">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="168.75">
+    <row r="101" spans="1:11">
       <c r="A101" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3">
-        <v>2302</v>
+      <c r="H101" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="23.25" thickBot="1">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F102" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G102" s="3"/>
-      <c r="H102" s="3">
-        <v>63</v>
+      <c r="H102" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="14.25" thickBot="1">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" ht="168.75">
       <c r="A103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3">
+        <v>2302</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="14.25" thickBot="1">
+      <c r="K103" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="23.25" thickBot="1">
       <c r="A104" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="3">
+        <v>63</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="K104" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.25" thickBot="1">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4118,11 +4208,13 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4135,9 +4227,11 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4150,7 +4244,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4165,7 +4259,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4180,7 +4274,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4195,7 +4289,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4210,7 +4304,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4225,7 +4319,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4240,7 +4334,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4254,7 +4348,9 @@
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="3"/>
+      <c r="A115" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4263,14 +4359,13 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3">
-        <f>SUM(J3:J89)</f>
-        <v>76766.8</v>
-      </c>
+      <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4292,7 +4387,10 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3">
+        <f>SUM(J3:J91)</f>
+        <v>85365.8</v>
+      </c>
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="1:11">
@@ -4425,17 +4523,43 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K31"/>
+  <autoFilter ref="A1:K33"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="http://www.yihaodian.com/product/2698379_3829?from=search"/>
-    <hyperlink ref="K9" r:id="rId2" display="http://www.yihaodian.com/product/2482618_5253?from=search"/>
-    <hyperlink ref="K14" r:id="rId3" display="http://www.360buy.com/product/491140.html"/>
-    <hyperlink ref="K87" r:id="rId4" display="http://detail.tmall.com/item.htm?id=17558712042&amp;"/>
-    <hyperlink ref="K94" r:id="rId5" display="http://mall.jia.com/item/14916"/>
-    <hyperlink ref="K101" r:id="rId6" display="http://mall.jia.com/item/8112"/>
-    <hyperlink ref="K102" r:id="rId7" display="http://www.360buy.com/product/1005852040.html"/>
+    <hyperlink ref="K10" r:id="rId2" display="http://www.yihaodian.com/product/2482618_5253?from=search"/>
+    <hyperlink ref="K15" r:id="rId3" display="http://www.360buy.com/product/491140.html"/>
+    <hyperlink ref="K89" r:id="rId4" display="http://detail.tmall.com/item.htm?id=17558712042&amp;"/>
+    <hyperlink ref="K96" r:id="rId5" display="http://mall.jia.com/item/14916"/>
+    <hyperlink ref="K103" r:id="rId6" display="http://mall.jia.com/item/8112"/>
+    <hyperlink ref="K104" r:id="rId7" display="http://www.360buy.com/product/1005852040.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId8"/>

--- a/trunk/采购价格表.xlsx
+++ b/trunk/采购价格表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,14 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_1" vbProcedure="false">Sheet1!$A$1:$K$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="227">
   <si>
     <t>空间</t>
   </si>
@@ -196,7 +197,7 @@
 灶具：ER75K253MP</t>
   </si>
   <si>
-    <t>700mm×400mm </t>
+    <t>700mm×400mm</t>
   </si>
   <si>
     <t>套</t>
@@ -452,7 +453,7 @@
     <t>莱尔诗丹</t>
   </si>
   <si>
-    <t>水槽 × 1 龙头 × 1 皂液器 × 1 菜板 × 1 下水 × 1 封边条 × 1 沥水篮 × 1 </t>
+    <t>水槽 × 1 龙头 × 1 皂液器 × 1 菜板 × 1 下水 × 1 封边条 × 1 沥水篮 × 1</t>
   </si>
   <si>
     <t>780x430x230</t>
@@ -462,7 +463,7 @@
 http://www.360buy.com/product/613887.html</t>
   </si>
   <si>
-    <t>双槽厨盆 × 1 U型下水 × 1 落水 × 2 厨盆龙头 × 1 皂液器 × 1 </t>
+    <t>双槽厨盆 × 1 U型下水 × 1 落水 × 2 厨盆龙头 × 1 皂液器 × 1</t>
   </si>
   <si>
     <t>760*430*180mm</t>
@@ -481,6 +482,7 @@
     <r>
       <rPr>
         <rFont val="宋体"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="00FF0000"/>
         <sz val="9"/>
@@ -495,7 +497,7 @@
     <t>苏宁电器川沙店国庆节报价</t>
   </si>
   <si>
-    <t>对开门 649wadv </t>
+    <t>对开门 649wadv</t>
   </si>
   <si>
     <t>封窗内容</t>
@@ -653,7 +655,7 @@
     <t>花洒</t>
   </si>
   <si>
-    <t>GE4006025 淋浴花洒 纯铜镀铬 龙头主体 × 1 顶喷花洒 × 1 手持花洒 × 1 软管 × 1 升降杆 × 1 安装底座 × 2 装饰盖 × 2 升降杆固定安装座 × 1 说明书 × 1 合格证 × 1 </t>
+    <t>GE4006025 淋浴花洒 纯铜镀铬 龙头主体 × 1 顶喷花洒 × 1 手持花洒 × 1 软管 × 1 升降杆 × 1 安装底座 × 2 装饰盖 × 2 升降杆固定安装座 × 1 说明书 × 1 合格证 × 1</t>
   </si>
   <si>
     <t>150*630*1320</t>
@@ -669,9 +671,8 @@
     <t>奥普QDP520D</t>
   </si>
   <si>
-    <t> 面罩尺寸（mm） 440×320 
-开孔尺寸（mm） 395×275 
-</t>
+    <t>面罩尺寸（mm） 440×320 
+开孔尺寸（mm） 395×275</t>
   </si>
   <si>
     <t>2048w</t>
@@ -861,6 +862,48 @@
   </si>
   <si>
     <t>护角条</t>
+  </si>
+  <si>
+    <t>客厅瓷砖</t>
+  </si>
+  <si>
+    <t>60X60</t>
+  </si>
+  <si>
+    <t>片</t>
+  </si>
+  <si>
+    <t>16、22、28</t>
+  </si>
+  <si>
+    <t>80X80</t>
+  </si>
+  <si>
+    <t>40左右</t>
+  </si>
+  <si>
+    <t>厨房墙砖</t>
+  </si>
+  <si>
+    <t>30X45</t>
+  </si>
+  <si>
+    <t>门合叶</t>
+  </si>
+  <si>
+    <t>6、8、10、15</t>
+  </si>
+  <si>
+    <t>门吸</t>
+  </si>
+  <si>
+    <t>10、25</t>
+  </si>
+  <si>
+    <t>门锁</t>
+  </si>
+  <si>
+    <t>35、55、85</t>
   </si>
 </sst>
 </file>
@@ -870,7 +913,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <name val="宋体"/>
       <charset val="1"/>
@@ -924,12 +967,7 @@
     </font>
     <font>
       <name val="宋体"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00FF0000"/>
       <sz val="9"/>
@@ -989,7 +1027,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -1001,10 +1039,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -1028,24 +1063,20 @@
   </sheetPr>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B8" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A8" activeCellId="0" pane="bottomLeft" sqref="A8"/>
-      <selection activeCell="H58" activeCellId="0" pane="bottomRight" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.2274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.1960784313725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="36.4156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.0901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.04313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.6078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.2627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.478431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="9.09019607843137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="36.5803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.1803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.09019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
@@ -2259,22 +2290,22 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="3" t="n">
@@ -3053,7 +3084,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="60.4" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="47.75" outlineLevel="0" r="80">
       <c r="A80" s="3" t="s">
         <v>120</v>
       </c>
@@ -3204,7 +3235,7 @@
       <c r="B86" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D86" s="3"/>
@@ -3738,13 +3769,21 @@
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -3753,13 +3792,21 @@
       <c r="A110" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -3768,28 +3815,40 @@
       <c r="A111" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="H111" s="3" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.6" outlineLevel="0" r="112">
       <c r="A112" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -3798,13 +3857,17 @@
       <c r="A113" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -3813,13 +3876,17 @@
       <c r="A114" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -3919,7 +3986,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.70980392156863"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3944,7 +4011,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.70980392156863"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
